--- a/public/files/templateblank.xlsx
+++ b/public/files/templateblank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UniFAST\Documents\fhebillingsystem\fhebillingsystem\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29064283-6D80-44A4-A7E6-07DCCA1491A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FD42AA-5093-4D9E-9631-86DA7A0C198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,17 +542,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,17 +560,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC2" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -963,10 +963,10 @@
       <c r="F1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -975,10 +975,10 @@
       <c r="B2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -997,79 +997,79 @@
       </c>
     </row>
     <row r="6" spans="1:41" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="46" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="46" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="46" t="s">
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="46" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="49" t="s">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="51"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
       <c r="AF6" s="17"/>
-      <c r="AG6" s="43" t="s">
+      <c r="AG6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="49" t="s">
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="42" t="s">
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="AE7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AG7" s="6" t="s">
@@ -1178,7 +1178,7 @@
       <c r="AN7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AO7" s="42"/>
+      <c r="AO7" s="48"/>
     </row>
     <row r="8" spans="1:41" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
@@ -3521,11 +3521,6 @@
   </sheetData>
   <autoFilter ref="E7:AN57" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AM6:AN6"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="AG6:AL6"/>
     <mergeCell ref="B6:B7"/>
@@ -3536,6 +3531,11 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AM6:AN6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3602,10 +3602,10 @@
       <c r="G1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="52"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3619,10 +3619,10 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="53"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3648,10 +3648,10 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -3678,8 +3678,8 @@
       <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>

--- a/public/files/templateblank.xlsx
+++ b/public/files/templateblank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UniFAST\Documents\fhebillingsystem\fhebillingsystem\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FD42AA-5093-4D9E-9631-86DA7A0C198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7108E-4013-43B1-94C0-5D09494CEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Student Number</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Permanent Address</t>
-  </si>
-  <si>
-    <t>Enrollment Information</t>
   </si>
   <si>
     <t>Extension Name</t>
@@ -258,6 +255,14 @@
   <si>
     <t>Exam Result
 (Passed or Failed)</t>
+  </si>
+  <si>
+    <t>Exam attempts
+(Put zero if none)</t>
+  </si>
+  <si>
+    <t>Enrollment Information
+(Put zero if none)</t>
   </si>
 </sst>
 </file>
@@ -536,17 +541,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,23 +568,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -955,121 +960,121 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="43"/>
+        <v>67</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="44" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="44" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44" t="s">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="44" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="50"/>
       <c r="AF6" s="17"/>
-      <c r="AG6" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="48" t="s">
-        <v>64</v>
+      <c r="AG6" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1077,16 +1082,16 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>13</v>
@@ -1109,76 +1114,76 @@
       <c r="Q7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AA7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AB7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AD7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AE7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AE7" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="AF7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="40" t="s">
+      <c r="AI7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AK7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AM7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AO7" s="48"/>
+      <c r="AN7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO7" s="41"/>
     </row>
     <row r="8" spans="1:41" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
@@ -1213,7 +1218,7 @@
       <c r="AD8" s="35"/>
       <c r="AE8" s="23"/>
       <c r="AF8" s="23"/>
-      <c r="AG8" s="41"/>
+      <c r="AG8" s="40"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="35"/>
@@ -1256,7 +1261,7 @@
       <c r="AD9" s="35"/>
       <c r="AE9" s="23"/>
       <c r="AF9" s="23"/>
-      <c r="AG9" s="41"/>
+      <c r="AG9" s="40"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="35"/>
@@ -1299,7 +1304,7 @@
       <c r="AD10" s="35"/>
       <c r="AE10" s="23"/>
       <c r="AF10" s="23"/>
-      <c r="AG10" s="41"/>
+      <c r="AG10" s="40"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="35"/>
@@ -1342,7 +1347,7 @@
       <c r="AD11" s="36"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
-      <c r="AG11" s="41"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="38"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="36"/>
@@ -1385,7 +1390,7 @@
       <c r="AD12" s="36"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
-      <c r="AG12" s="41"/>
+      <c r="AG12" s="40"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
@@ -1428,7 +1433,7 @@
       <c r="AD13" s="36"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
-      <c r="AG13" s="41"/>
+      <c r="AG13" s="40"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="36"/>
@@ -1471,7 +1476,7 @@
       <c r="AD14" s="36"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
-      <c r="AG14" s="41"/>
+      <c r="AG14" s="40"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
@@ -1514,7 +1519,7 @@
       <c r="AD15" s="36"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
-      <c r="AG15" s="41"/>
+      <c r="AG15" s="40"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="36"/>
@@ -1557,7 +1562,7 @@
       <c r="AD16" s="36"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
-      <c r="AG16" s="41"/>
+      <c r="AG16" s="40"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
@@ -1600,7 +1605,7 @@
       <c r="AD17" s="35"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="41"/>
+      <c r="AG17" s="40"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="36"/>
       <c r="AJ17" s="36"/>
@@ -1643,7 +1648,7 @@
       <c r="AD18" s="35"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
-      <c r="AG18" s="41"/>
+      <c r="AG18" s="40"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
@@ -1686,7 +1691,7 @@
       <c r="AD19" s="35"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="41"/>
+      <c r="AG19" s="40"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
@@ -1729,7 +1734,7 @@
       <c r="AD20" s="36"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
-      <c r="AG20" s="41"/>
+      <c r="AG20" s="40"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
@@ -1772,7 +1777,7 @@
       <c r="AD21" s="36"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
-      <c r="AG21" s="41"/>
+      <c r="AG21" s="40"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
@@ -1815,7 +1820,7 @@
       <c r="AD22" s="36"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
-      <c r="AG22" s="41"/>
+      <c r="AG22" s="40"/>
       <c r="AH22" s="38"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
@@ -1858,7 +1863,7 @@
       <c r="AD23" s="36"/>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
-      <c r="AG23" s="41"/>
+      <c r="AG23" s="40"/>
       <c r="AH23" s="38"/>
       <c r="AI23" s="35"/>
       <c r="AJ23" s="35"/>
@@ -1901,7 +1906,7 @@
       <c r="AD24" s="36"/>
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
-      <c r="AG24" s="41"/>
+      <c r="AG24" s="40"/>
       <c r="AH24" s="38"/>
       <c r="AI24" s="35"/>
       <c r="AJ24" s="35"/>
@@ -1944,7 +1949,7 @@
       <c r="AD25" s="36"/>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
-      <c r="AG25" s="41"/>
+      <c r="AG25" s="40"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="35"/>
@@ -1987,7 +1992,7 @@
       <c r="AD26" s="35"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
-      <c r="AG26" s="41"/>
+      <c r="AG26" s="40"/>
       <c r="AH26" s="38"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
@@ -2030,7 +2035,7 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
-      <c r="AG27" s="41"/>
+      <c r="AG27" s="40"/>
       <c r="AH27" s="38"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="36"/>
@@ -2073,7 +2078,7 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
-      <c r="AG28" s="41"/>
+      <c r="AG28" s="40"/>
       <c r="AH28" s="38"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
@@ -2116,7 +2121,7 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
-      <c r="AG29" s="41"/>
+      <c r="AG29" s="40"/>
       <c r="AH29" s="38"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
@@ -2159,7 +2164,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
-      <c r="AG30" s="41"/>
+      <c r="AG30" s="40"/>
       <c r="AH30" s="38"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
@@ -2202,7 +2207,7 @@
       <c r="AD31" s="36"/>
       <c r="AE31" s="21"/>
       <c r="AF31" s="21"/>
-      <c r="AG31" s="41"/>
+      <c r="AG31" s="40"/>
       <c r="AH31" s="38"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
@@ -2245,7 +2250,7 @@
       <c r="AD32" s="36"/>
       <c r="AE32" s="21"/>
       <c r="AF32" s="21"/>
-      <c r="AG32" s="41"/>
+      <c r="AG32" s="40"/>
       <c r="AH32" s="38"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
@@ -2288,7 +2293,7 @@
       <c r="AD33" s="36"/>
       <c r="AE33" s="21"/>
       <c r="AF33" s="21"/>
-      <c r="AG33" s="41"/>
+      <c r="AG33" s="40"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
@@ -2331,7 +2336,7 @@
       <c r="AD34" s="36"/>
       <c r="AE34" s="21"/>
       <c r="AF34" s="21"/>
-      <c r="AG34" s="41"/>
+      <c r="AG34" s="40"/>
       <c r="AH34" s="38"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="36"/>
@@ -2374,7 +2379,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
-      <c r="AG35" s="41"/>
+      <c r="AG35" s="40"/>
       <c r="AH35" s="38"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="36"/>
@@ -2417,7 +2422,7 @@
       <c r="AD36" s="35"/>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
-      <c r="AG36" s="41"/>
+      <c r="AG36" s="40"/>
       <c r="AH36" s="38"/>
       <c r="AI36" s="36"/>
       <c r="AJ36" s="36"/>
@@ -2460,7 +2465,7 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
-      <c r="AG37" s="41"/>
+      <c r="AG37" s="40"/>
       <c r="AH37" s="38"/>
       <c r="AI37" s="36"/>
       <c r="AJ37" s="36"/>
@@ -2503,7 +2508,7 @@
       <c r="AD38" s="36"/>
       <c r="AE38" s="21"/>
       <c r="AF38" s="21"/>
-      <c r="AG38" s="41"/>
+      <c r="AG38" s="40"/>
       <c r="AH38" s="38"/>
       <c r="AI38" s="35"/>
       <c r="AJ38" s="35"/>
@@ -2546,7 +2551,7 @@
       <c r="AD39" s="36"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
-      <c r="AG39" s="41"/>
+      <c r="AG39" s="40"/>
       <c r="AH39" s="38"/>
       <c r="AI39" s="35"/>
       <c r="AJ39" s="35"/>
@@ -2589,7 +2594,7 @@
       <c r="AD40" s="36"/>
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
-      <c r="AG40" s="41"/>
+      <c r="AG40" s="40"/>
       <c r="AH40" s="38"/>
       <c r="AI40" s="35"/>
       <c r="AJ40" s="35"/>
@@ -2632,7 +2637,7 @@
       <c r="AD41" s="36"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
-      <c r="AG41" s="41"/>
+      <c r="AG41" s="40"/>
       <c r="AH41" s="38"/>
       <c r="AI41" s="36"/>
       <c r="AJ41" s="36"/>
@@ -2675,7 +2680,7 @@
       <c r="AD42" s="36"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
-      <c r="AG42" s="41"/>
+      <c r="AG42" s="40"/>
       <c r="AH42" s="38"/>
       <c r="AI42" s="36"/>
       <c r="AJ42" s="36"/>
@@ -2718,7 +2723,7 @@
       <c r="AD43" s="36"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
-      <c r="AG43" s="41"/>
+      <c r="AG43" s="40"/>
       <c r="AH43" s="38"/>
       <c r="AI43" s="36"/>
       <c r="AJ43" s="36"/>
@@ -2761,7 +2766,7 @@
       <c r="AD44" s="35"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="21"/>
-      <c r="AG44" s="41"/>
+      <c r="AG44" s="40"/>
       <c r="AH44" s="38"/>
       <c r="AI44" s="36"/>
       <c r="AJ44" s="36"/>
@@ -2804,7 +2809,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="21"/>
       <c r="AF45" s="21"/>
-      <c r="AG45" s="41"/>
+      <c r="AG45" s="40"/>
       <c r="AH45" s="38"/>
       <c r="AI45" s="36"/>
       <c r="AJ45" s="36"/>
@@ -2847,7 +2852,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="21"/>
-      <c r="AG46" s="41"/>
+      <c r="AG46" s="40"/>
       <c r="AH46" s="38"/>
       <c r="AI46" s="36"/>
       <c r="AJ46" s="36"/>
@@ -2890,7 +2895,7 @@
       <c r="AD47" s="36"/>
       <c r="AE47" s="21"/>
       <c r="AF47" s="21"/>
-      <c r="AG47" s="41"/>
+      <c r="AG47" s="40"/>
       <c r="AH47" s="38"/>
       <c r="AI47" s="36"/>
       <c r="AJ47" s="36"/>
@@ -2933,7 +2938,7 @@
       <c r="AD48" s="36"/>
       <c r="AE48" s="21"/>
       <c r="AF48" s="21"/>
-      <c r="AG48" s="41"/>
+      <c r="AG48" s="40"/>
       <c r="AH48" s="38"/>
       <c r="AI48" s="36"/>
       <c r="AJ48" s="36"/>
@@ -2976,7 +2981,7 @@
       <c r="AD49" s="36"/>
       <c r="AE49" s="21"/>
       <c r="AF49" s="21"/>
-      <c r="AG49" s="41"/>
+      <c r="AG49" s="40"/>
       <c r="AH49" s="38"/>
       <c r="AI49" s="36"/>
       <c r="AJ49" s="36"/>
@@ -3019,7 +3024,7 @@
       <c r="AD50" s="36"/>
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
-      <c r="AG50" s="41"/>
+      <c r="AG50" s="40"/>
       <c r="AH50" s="38"/>
       <c r="AI50" s="36"/>
       <c r="AJ50" s="36"/>
@@ -3062,7 +3067,7 @@
       <c r="AD51" s="36"/>
       <c r="AE51" s="21"/>
       <c r="AF51" s="21"/>
-      <c r="AG51" s="41"/>
+      <c r="AG51" s="40"/>
       <c r="AH51" s="38"/>
       <c r="AI51" s="36"/>
       <c r="AJ51" s="36"/>
@@ -3105,7 +3110,7 @@
       <c r="AD52" s="36"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
-      <c r="AG52" s="41"/>
+      <c r="AG52" s="40"/>
       <c r="AH52" s="38"/>
       <c r="AI52" s="36"/>
       <c r="AJ52" s="36"/>
@@ -3148,7 +3153,7 @@
       <c r="AD53" s="35"/>
       <c r="AE53" s="21"/>
       <c r="AF53" s="21"/>
-      <c r="AG53" s="41"/>
+      <c r="AG53" s="40"/>
       <c r="AH53" s="38"/>
       <c r="AI53" s="35"/>
       <c r="AJ53" s="35"/>
@@ -3191,7 +3196,7 @@
       <c r="AD54" s="35"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
-      <c r="AG54" s="41"/>
+      <c r="AG54" s="40"/>
       <c r="AH54" s="38"/>
       <c r="AI54" s="35"/>
       <c r="AJ54" s="35"/>
@@ -3234,7 +3239,7 @@
       <c r="AD55" s="35"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
-      <c r="AG55" s="41"/>
+      <c r="AG55" s="40"/>
       <c r="AH55" s="38"/>
       <c r="AI55" s="35"/>
       <c r="AJ55" s="35"/>
@@ -3277,7 +3282,7 @@
       <c r="AD56" s="36"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
-      <c r="AG56" s="41"/>
+      <c r="AG56" s="40"/>
       <c r="AH56" s="38"/>
       <c r="AI56" s="36"/>
       <c r="AJ56" s="36"/>
@@ -3320,7 +3325,7 @@
       <c r="AD57" s="36"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
-      <c r="AG57" s="41"/>
+      <c r="AG57" s="40"/>
       <c r="AH57" s="38"/>
       <c r="AI57" s="36"/>
       <c r="AJ57" s="36"/>
@@ -3521,6 +3526,11 @@
   </sheetData>
   <autoFilter ref="E7:AN57" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AM6:AN6"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="AG6:AL6"/>
     <mergeCell ref="B6:B7"/>
@@ -3531,11 +3541,6 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AM6:AN6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3593,19 +3598,19 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3613,33 +3618,33 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="43"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3648,38 +3653,38 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -3699,34 +3704,34 @@
         <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3747,10 +3752,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3771,10 +3776,10 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3861,44 +3866,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
